--- a/practica1/Datos.xlsx
+++ b/practica1/Datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\Desktop\IA\ia_2023\practica1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DACC272-7B42-41B0-880F-EC6FB31B79AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44CEB8D2-0B9E-415A-8ED2-52C780F378B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,15 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>Profundidad</t>
   </si>
   <si>
     <t>A_Estrella</t>
-  </si>
-  <si>
-    <t>MinMax</t>
   </si>
   <si>
     <t>Min</t>
@@ -88,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -100,17 +97,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -149,20 +135,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000000"/>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <numFmt numFmtId="165" formatCode="0.000000"/>
     </dxf>
@@ -183,12 +164,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{17090E56-CEB8-402C-BE3D-D10F38C5D56F}" name="Tabla1" displayName="Tabla1" ref="A2:C102" totalsRowShown="0">
-  <autoFilter ref="A2:C102" xr:uid="{17090E56-CEB8-402C-BE3D-D10F38C5D56F}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{E07D7EF0-0A2A-422B-8857-BA08A1329E9A}" name="Profundidad" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{875F5328-3F98-4DFF-913E-F7E4ED3DAE02}" name="A_Estrella" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{56C55801-4C28-49E6-9B7C-52AD70D8114C}" name="MinMax" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{17090E56-CEB8-402C-BE3D-D10F38C5D56F}" name="Tabla1" displayName="Tabla1" ref="A2:B102" totalsRowShown="0">
+  <autoFilter ref="A2:B102" xr:uid="{17090E56-CEB8-402C-BE3D-D10F38C5D56F}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{E07D7EF0-0A2A-422B-8857-BA08A1329E9A}" name="Profundidad" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{875F5328-3F98-4DFF-913E-F7E4ED3DAE02}" name="A_Estrella" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -457,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N995"/>
+  <dimension ref="A1:M995"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:M5"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -474,1245 +454,1223 @@
     <col min="12" max="12" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="6"/>
-      <c r="C1" s="7"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C1" s="8"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
+      <c r="C2"/>
+      <c r="F2" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="I2"/>
+      <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1.8448829650878899E-2</v>
       </c>
       <c r="B3" s="3">
         <v>2.34344005584716E-2</v>
       </c>
-      <c r="C3" s="3">
-        <v>7.5705051422119097E-3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="4">
+      <c r="C3"/>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4">
         <f>MIN(Tabla1[Profundidad])*1000</f>
         <v>11.5125179290771</v>
       </c>
-      <c r="H3" s="4">
+      <c r="G3" s="4">
         <f>MIN(Tabla1[A_Estrella])*1000</f>
         <v>16.316652297973601</v>
       </c>
-      <c r="I3" s="4">
-        <f>MIN(Tabla1[MinMax])*1000</f>
-        <v>3.9803981781005797</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H3" s="4"/>
+      <c r="I3"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>2.7256011962890601E-2</v>
       </c>
       <c r="B4" s="3">
         <v>3.26359272003173E-2</v>
       </c>
-      <c r="C4" s="3">
-        <v>7.2124004364013602E-3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="4">
+      <c r="C4"/>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="4">
         <f>MAX(Tabla1[Profundidad])*1000</f>
         <v>27.2560119628906</v>
       </c>
-      <c r="H4" s="4">
+      <c r="G4" s="4">
         <f>MAX(Tabla1[A_Estrella])*1000</f>
         <v>33.128499984741197</v>
       </c>
-      <c r="I4" s="4">
-        <f>MAX(Tabla1[MinMax])*1000</f>
-        <v>46.2243556976318</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H4" s="4"/>
+      <c r="I4"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>1.35388374328613E-2</v>
       </c>
       <c r="B5" s="3">
         <v>2.1875143051147398E-2</v>
       </c>
-      <c r="C5" s="3">
-        <v>2.3054361343383699E-2</v>
-      </c>
-      <c r="F5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="4">
+      <c r="C5"/>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="4">
         <f>AVERAGE(Tabla1[Profundidad])*1000</f>
         <v>16.778230667114229</v>
       </c>
-      <c r="H5" s="4">
+      <c r="G5" s="4">
         <f>AVERAGE(Tabla1[A_Estrella])*1000</f>
         <v>22.440812587738016</v>
       </c>
-      <c r="I5" s="4">
-        <f>AVERAGE(Tabla1[MinMax])*1000</f>
-        <v>22.546124458312971</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H5" s="4"/>
+      <c r="I5"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>2.4044036865234299E-2</v>
       </c>
       <c r="B6" s="3">
         <v>2.8582811355590799E-2</v>
       </c>
-      <c r="C6" s="3">
-        <v>1.0778665542602499E-2</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="4">
+      <c r="C6"/>
+      <c r="E6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="4">
         <f>_xlfn.STDEV.S((Tabla1[Profundidad]))*1000</f>
         <v>4.8690494301309686</v>
       </c>
-      <c r="H6" s="4">
+      <c r="G6" s="4">
         <f>_xlfn.STDEV.S((Tabla1[A_Estrella]))*1000</f>
         <v>4.7418765429848344</v>
       </c>
-      <c r="I6" s="4">
-        <f>_xlfn.STDEV.S((Tabla1[MinMax]))*1000</f>
-        <v>14.057140157197368</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H6" s="4"/>
+      <c r="I6"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>1.30276679992675E-2</v>
       </c>
       <c r="B7" s="3">
         <v>1.7094850540161102E-2</v>
       </c>
-      <c r="C7" s="3">
-        <v>3.7576913833618102E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C7"/>
+      <c r="F7" s="3"/>
+      <c r="I7"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>1.163911819458E-2</v>
       </c>
       <c r="B8" s="3">
         <v>1.7044305801391602E-2</v>
       </c>
-      <c r="C8" s="3">
-        <v>1.8051862716674801E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C8"/>
+      <c r="F8" s="3"/>
+      <c r="I8"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>2.22420692443847E-2</v>
       </c>
       <c r="B9" s="3">
         <v>3.07607650756835E-2</v>
       </c>
-      <c r="C9" s="3">
-        <v>3.9316177368164E-2</v>
-      </c>
-      <c r="G9"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C9"/>
+      <c r="I9"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>1.3064622879028299E-2</v>
       </c>
       <c r="B10" s="3">
         <v>1.75344944000244E-2</v>
       </c>
-      <c r="C10" s="3">
-        <v>1.0519504547119101E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C10"/>
+      <c r="F10" s="3"/>
+      <c r="I10"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>1.4056921005248999E-2</v>
       </c>
       <c r="B11" s="3">
         <v>1.9177436828613201E-2</v>
       </c>
-      <c r="C11" s="3">
-        <v>4.4534444808959898E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C11"/>
+      <c r="F11" s="3"/>
+      <c r="I11"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>2.2229194641113201E-2</v>
       </c>
       <c r="B12" s="3">
         <v>3.1653881072997998E-2</v>
       </c>
-      <c r="C12" s="3">
-        <v>1.0010957717895499E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C12"/>
+      <c r="F12" s="3"/>
+      <c r="I12"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>1.5049219131469701E-2</v>
       </c>
       <c r="B13" s="3">
         <v>1.9560098648071199E-2</v>
       </c>
-      <c r="C13" s="3">
-        <v>4.2089223861694301E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C13"/>
+      <c r="F13" s="3"/>
+      <c r="I13"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>1.3535261154174799E-2</v>
       </c>
       <c r="B14" s="3">
         <v>1.76661014556884E-2</v>
       </c>
-      <c r="C14" s="3">
-        <v>1.05102062225341E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C14"/>
+      <c r="F14" s="3"/>
+      <c r="I14"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>2.3782968521118102E-2</v>
       </c>
       <c r="B15" s="3">
         <v>2.7585744857787999E-2</v>
       </c>
-      <c r="C15" s="3">
-        <v>3.5705804824829102E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C15"/>
+      <c r="F15" s="3"/>
+      <c r="I15"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>1.4425992965698201E-2</v>
       </c>
       <c r="B16" s="3">
         <v>1.9022703170776301E-2</v>
       </c>
-      <c r="C16" s="3">
-        <v>1.35920047760009E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C16"/>
+      <c r="F16" s="3"/>
+      <c r="I16"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>1.4320850372314399E-2</v>
       </c>
       <c r="B17" s="3">
         <v>1.9140243530273399E-2</v>
       </c>
-      <c r="C17" s="3">
-        <v>4.2777061462402302E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C17"/>
+      <c r="F17" s="3"/>
+      <c r="I17"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>2.7047395706176699E-2</v>
       </c>
       <c r="B18" s="3">
         <v>2.6877880096435498E-2</v>
       </c>
-      <c r="C18" s="3">
-        <v>1.24890804290771E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C18"/>
+      <c r="F18" s="3"/>
+      <c r="I18"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>1.43661499023437E-2</v>
       </c>
       <c r="B19" s="3">
         <v>2.0876407623290998E-2</v>
       </c>
-      <c r="C19" s="3">
-        <v>4.2797088623046799E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C19"/>
+      <c r="F19" s="3"/>
+      <c r="I19"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>1.35896205902099E-2</v>
       </c>
       <c r="B20" s="3">
         <v>1.9081115722656201E-2</v>
       </c>
-      <c r="C20" s="3">
-        <v>1.05059146881103E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C20"/>
+      <c r="F20" s="3"/>
+      <c r="I20"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>2.1061182022094699E-2</v>
       </c>
       <c r="B21" s="3">
         <v>2.6569604873657199E-2</v>
       </c>
-      <c r="C21" s="3">
-        <v>1.0643959045410101E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C21"/>
+      <c r="F21" s="3"/>
+      <c r="I21"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>1.2584209442138601E-2</v>
       </c>
       <c r="B22" s="3">
         <v>2.2090435028076099E-2</v>
       </c>
-      <c r="C22" s="3">
-        <v>7.3156356811523403E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C22"/>
+      <c r="F22" s="3"/>
+      <c r="I22"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>2.40657329559326E-2</v>
       </c>
       <c r="B23" s="3">
         <v>3.0585050582885701E-2</v>
       </c>
-      <c r="C23" s="3">
-        <v>5.3489208221435504E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C23"/>
+      <c r="F23" s="3"/>
+      <c r="I23"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>1.25188827514648E-2</v>
       </c>
       <c r="B24" s="3">
         <v>2.0156145095825102E-2</v>
       </c>
-      <c r="C24" s="3">
-        <v>2.1558761596679601E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C24"/>
+      <c r="F24" s="3"/>
+      <c r="I24"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>1.31244659423828E-2</v>
       </c>
       <c r="B25" s="3">
         <v>2.0151138305664E-2</v>
       </c>
-      <c r="C25" s="3">
-        <v>2.11234092712402E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C25"/>
+      <c r="F25" s="3"/>
+      <c r="I25"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>2.2128343582153299E-2</v>
       </c>
       <c r="B26" s="3">
         <v>3.3128499984741197E-2</v>
       </c>
-      <c r="C26" s="3">
-        <v>3.9812803268432603E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C26"/>
+      <c r="F26" s="3"/>
+      <c r="I26"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>1.2487411499023399E-2</v>
       </c>
       <c r="B27" s="3">
         <v>2.2787094116210899E-2</v>
       </c>
-      <c r="C27" s="3">
-        <v>2.20720767974853E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C27"/>
+      <c r="F27" s="3"/>
+      <c r="I27"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>1.1526584625244101E-2</v>
       </c>
       <c r="B28" s="3">
         <v>2.3122072219848602E-2</v>
       </c>
-      <c r="C28" s="3">
-        <v>3.9787292480468701E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C28"/>
+      <c r="F28" s="3"/>
+      <c r="I28"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>2.2121906280517498E-2</v>
       </c>
       <c r="B29" s="3">
         <v>2.8563737869262602E-2</v>
       </c>
-      <c r="C29" s="3">
-        <v>1.50477886199951E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C29"/>
+      <c r="F29" s="3"/>
+      <c r="I29"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>1.15301609039306E-2</v>
       </c>
       <c r="B30" s="3">
         <v>1.95918083190917E-2</v>
       </c>
-      <c r="C30" s="3">
-        <v>3.8459777832031201E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C30"/>
+      <c r="F30" s="3"/>
+      <c r="I30"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>1.65531635284423E-2</v>
       </c>
       <c r="B31" s="3">
         <v>2.0041227340698201E-2</v>
       </c>
-      <c r="C31" s="3">
-        <v>1.48429870605468E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C31"/>
+      <c r="F31" s="3"/>
+      <c r="I31"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>2.6075363159179601E-2</v>
       </c>
       <c r="B32" s="3">
         <v>2.93731689453125E-2</v>
       </c>
-      <c r="C32" s="3">
-        <v>3.87747287750244E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C32"/>
+      <c r="F32" s="3"/>
+      <c r="I32"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>1.5300273895263601E-2</v>
       </c>
       <c r="B33" s="3">
         <v>1.8107175827026301E-2</v>
       </c>
-      <c r="C33" s="3">
-        <v>1.15046501159667E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C33"/>
+      <c r="F33" s="3"/>
+      <c r="I33"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>1.4932632446289E-2</v>
       </c>
       <c r="B34" s="3">
         <v>1.7040729522704998E-2</v>
       </c>
-      <c r="C34" s="3">
-        <v>3.8889408111572203E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C34"/>
+      <c r="F34" s="3"/>
+      <c r="I34"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>2.3578643798828101E-2</v>
       </c>
       <c r="B35" s="3">
         <v>2.7310848236083901E-2</v>
       </c>
-      <c r="C35" s="3">
-        <v>1.15251541137695E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C35"/>
+      <c r="F35" s="3"/>
+      <c r="I35"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>1.3520717620849601E-2</v>
       </c>
       <c r="B36" s="3">
         <v>1.8964767456054601E-2</v>
       </c>
-      <c r="C36" s="3">
-        <v>4.02579307556152E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C36"/>
+      <c r="F36" s="3"/>
+      <c r="I36"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>1.3087511062621999E-2</v>
       </c>
       <c r="B37" s="3">
         <v>2.4604320526122998E-2</v>
       </c>
-      <c r="C37" s="3">
-        <v>1.05974674224853E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C37"/>
+      <c r="F37" s="3"/>
+      <c r="I37"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>2.00352668762207E-2</v>
       </c>
       <c r="B38" s="3">
         <v>2.6096582412719699E-2</v>
       </c>
-      <c r="C38" s="3">
-        <v>4.38175201416015E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C38"/>
+      <c r="F38" s="3"/>
+      <c r="I38"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>1.5749931335449201E-2</v>
       </c>
       <c r="B39" s="3">
         <v>1.9587993621826099E-2</v>
       </c>
-      <c r="C39" s="3">
-        <v>1.05283260345458E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C39"/>
+      <c r="F39" s="3"/>
+      <c r="I39"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>2.4137735366821199E-2</v>
       </c>
       <c r="B40" s="3">
         <v>3.0609369277954102E-2</v>
       </c>
-      <c r="C40" s="3">
-        <v>4.4889450073242097E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C40"/>
+      <c r="F40" s="3"/>
+      <c r="I40"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>1.15623474121093E-2</v>
       </c>
       <c r="B41" s="3">
         <v>1.9193172454833901E-2</v>
       </c>
-      <c r="C41" s="3">
-        <v>4.9946308135986302E-3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C41"/>
+      <c r="F41" s="3"/>
+      <c r="I41"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>1.35178565979003E-2</v>
       </c>
       <c r="B42" s="3">
         <v>1.8326759338378899E-2</v>
       </c>
-      <c r="C42" s="3">
-        <v>3.9803981781005799E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C42"/>
+      <c r="F42" s="3"/>
+      <c r="I42"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>2.3601293563842701E-2</v>
       </c>
       <c r="B43" s="3">
         <v>2.93021202087402E-2</v>
       </c>
-      <c r="C43" s="3">
-        <v>7.3070526123046797E-3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C43"/>
+      <c r="F43" s="3"/>
+      <c r="I43"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>1.2180328369140601E-2</v>
       </c>
       <c r="B44" s="3">
         <v>1.6316652297973602E-2</v>
       </c>
-      <c r="C44" s="3">
-        <v>8.73160362243652E-3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C44"/>
+      <c r="F44" s="3"/>
+      <c r="I44"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>1.3507366180419899E-2</v>
       </c>
       <c r="B45" s="3">
         <v>1.6515016555786102E-2</v>
       </c>
-      <c r="C45" s="3">
-        <v>3.1860113143920898E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C45"/>
+      <c r="F45" s="3"/>
+      <c r="I45"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>2.4425506591796799E-2</v>
       </c>
       <c r="B46" s="3">
         <v>2.74631977081298E-2</v>
       </c>
-      <c r="C46" s="3">
-        <v>1.9901990890502898E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C46"/>
+      <c r="F46" s="3"/>
+      <c r="I46"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>1.4558076858520499E-2</v>
       </c>
       <c r="B47" s="3">
         <v>1.7449378967285101E-2</v>
       </c>
-      <c r="C47" s="3">
-        <v>3.0809164047241201E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C47"/>
+      <c r="F47" s="3"/>
+      <c r="I47"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>1.38032436370849E-2</v>
       </c>
       <c r="B48" s="3">
         <v>1.7967939376830999E-2</v>
       </c>
-      <c r="C48" s="3">
-        <v>2.8488397598266602E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C48"/>
+      <c r="F48" s="3"/>
+      <c r="I48"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>2.32691764831542E-2</v>
       </c>
       <c r="B49" s="3">
         <v>2.69544124603271E-2</v>
       </c>
-      <c r="C49" s="3">
-        <v>4.0642023086547803E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C49"/>
+      <c r="F49" s="3"/>
+      <c r="I49"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>1.36163234710693E-2</v>
       </c>
       <c r="B50" s="3">
         <v>2.2454023361205999E-2</v>
       </c>
-      <c r="C50" s="3">
-        <v>1.16775035858154E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C50"/>
+      <c r="F50" s="3"/>
+      <c r="I50"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>1.26316547393798E-2</v>
       </c>
       <c r="B51" s="3">
         <v>2.0412445068359299E-2</v>
       </c>
-      <c r="C51" s="3">
-        <v>4.2295217514038003E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C51"/>
+      <c r="F51" s="3"/>
+      <c r="I51"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>2.2238731384277299E-2</v>
       </c>
       <c r="B52" s="3">
         <v>2.8108358383178701E-2</v>
       </c>
-      <c r="C52" s="3">
-        <v>1.1508464813232399E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C52"/>
+      <c r="F52" s="3"/>
+      <c r="I52"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>1.27055644989013E-2</v>
       </c>
       <c r="B53" s="3">
         <v>1.77633762359619E-2</v>
       </c>
-      <c r="C53" s="3">
-        <v>3.9826154708862298E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C53"/>
+      <c r="F53" s="3"/>
+      <c r="I53"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>1.2117147445678701E-2</v>
       </c>
       <c r="B54" s="3">
         <v>1.8471479415893499E-2</v>
       </c>
-      <c r="C54" s="3">
-        <v>1.0837316513061499E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C54"/>
+      <c r="F54" s="3"/>
+      <c r="I54"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>2.0166158676147398E-2</v>
       </c>
       <c r="B55" s="3">
         <v>2.9308319091796799E-2</v>
       </c>
-      <c r="C55" s="3">
-        <v>4.6224355697631801E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C55"/>
+      <c r="F55" s="3"/>
+      <c r="I55"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>1.2734413146972601E-2</v>
       </c>
       <c r="B56" s="3">
         <v>1.7522096633911102E-2</v>
       </c>
-      <c r="C56" s="3">
-        <v>1.15189552307128E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C56"/>
+      <c r="F56" s="3"/>
+      <c r="I56"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>2.4614334106445299E-2</v>
       </c>
       <c r="B57" s="3">
         <v>2.9026746749877898E-2</v>
       </c>
-      <c r="C57" s="3">
-        <v>3.3446073532104402E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C57"/>
+      <c r="F57" s="3"/>
+      <c r="I57"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>1.38576030731201E-2</v>
       </c>
       <c r="B58" s="3">
         <v>1.7534017562866201E-2</v>
       </c>
-      <c r="C58" s="3">
-        <v>1.0798931121826101E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C58"/>
+      <c r="F58" s="3"/>
+      <c r="I58"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>1.22532844543457E-2</v>
       </c>
       <c r="B59" s="3">
         <v>1.72345638275146E-2</v>
       </c>
-      <c r="C59" s="3">
-        <v>2.93548107147216E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C59"/>
+      <c r="F59" s="3"/>
+      <c r="I59"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>2.1203041076660101E-2</v>
       </c>
       <c r="B60" s="3">
         <v>2.6755094528198201E-2</v>
       </c>
-      <c r="C60" s="3">
-        <v>7.7776908874511701E-3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C60"/>
+      <c r="F60" s="3"/>
+      <c r="I60"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>1.52046680450439E-2</v>
       </c>
       <c r="B61" s="3">
         <v>1.8933773040771401E-2</v>
       </c>
-      <c r="C61" s="3">
-        <v>7.5232982635498004E-3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C61"/>
+      <c r="F61" s="3"/>
+      <c r="I61"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>1.2513399124145499E-2</v>
       </c>
       <c r="B62" s="3">
         <v>1.96959972381591E-2</v>
       </c>
-      <c r="C62" s="3">
-        <v>2.6308059692382799E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C62"/>
+      <c r="F62" s="3"/>
+      <c r="I62"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>2.57973670959472E-2</v>
       </c>
       <c r="B63" s="3">
         <v>2.93116569519042E-2</v>
       </c>
-      <c r="C63" s="3">
-        <v>9.4263553619384696E-3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C63"/>
+      <c r="F63" s="3"/>
+      <c r="I63"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>1.4521598815917899E-2</v>
       </c>
       <c r="B64" s="3">
         <v>1.9055843353271401E-2</v>
       </c>
-      <c r="C64" s="3">
-        <v>3.4142971038818297E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C64"/>
+      <c r="F64" s="3"/>
+      <c r="I64"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>1.4545202255248999E-2</v>
       </c>
       <c r="B65" s="3">
         <v>1.8222808837890601E-2</v>
       </c>
-      <c r="C65" s="3">
-        <v>1.6528844833373999E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C65"/>
+      <c r="F65" s="3"/>
+      <c r="I65"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>2.1920204162597601E-2</v>
       </c>
       <c r="B66" s="3">
         <v>2.64477729797363E-2</v>
       </c>
-      <c r="C66" s="3">
-        <v>2.3555278778076099E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C66"/>
+      <c r="F66" s="3"/>
+      <c r="I66"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>1.21502876281738E-2</v>
       </c>
       <c r="B67" s="3">
         <v>1.9527196884155201E-2</v>
       </c>
-      <c r="C67" s="3">
-        <v>1.1892318725585899E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C67"/>
+      <c r="F67" s="3"/>
+      <c r="I67"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>1.17003917694091E-2</v>
       </c>
       <c r="B68" s="3">
         <v>1.78370475769042E-2</v>
       </c>
-      <c r="C68" s="3">
-        <v>1.16145610809326E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C68"/>
+      <c r="F68" s="3"/>
+      <c r="I68"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>1.9842147827148399E-2</v>
       </c>
       <c r="B69" s="3">
         <v>2.764892578125E-2</v>
       </c>
-      <c r="C69" s="3">
-        <v>6.9968700408935504E-3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C69"/>
+      <c r="F69" s="3"/>
+      <c r="I69"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>1.5232324600219701E-2</v>
       </c>
       <c r="B70" s="3">
         <v>1.9224166870117101E-2</v>
       </c>
-      <c r="C70" s="3">
-        <v>4.4235467910766602E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C70"/>
+      <c r="F70" s="3"/>
+      <c r="I70"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>1.26163959503173E-2</v>
       </c>
       <c r="B71" s="3">
         <v>1.85542106628417E-2</v>
       </c>
-      <c r="C71" s="3">
-        <v>1.05135440826416E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C71"/>
+      <c r="F71" s="3"/>
+      <c r="I71"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>2.0365953445434501E-2</v>
       </c>
       <c r="B72" s="3">
         <v>2.593994140625E-2</v>
       </c>
-      <c r="C72" s="3">
-        <v>4.5095443725585903E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C72"/>
+      <c r="F72" s="3"/>
+      <c r="I72"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>1.27007961273193E-2</v>
       </c>
       <c r="B73" s="3">
         <v>1.9030570983886701E-2</v>
       </c>
-      <c r="C73" s="3">
-        <v>1.2653589248657201E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C73"/>
+      <c r="F73" s="3"/>
+      <c r="I73"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>2.3856163024902299E-2</v>
       </c>
       <c r="B74" s="3">
         <v>2.96025276184082E-2</v>
       </c>
-      <c r="C74" s="3">
-        <v>4.2479753494262598E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C74"/>
+      <c r="F74" s="3"/>
+      <c r="I74"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>1.2772321701049799E-2</v>
       </c>
       <c r="B75" s="3">
         <v>1.9078016281127898E-2</v>
       </c>
-      <c r="C75" s="3">
-        <v>1.53124332427978E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C75"/>
+      <c r="F75" s="3"/>
+      <c r="I75"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>1.39646530151367E-2</v>
       </c>
       <c r="B76" s="3">
         <v>1.94497108459472E-2</v>
       </c>
-      <c r="C76" s="3">
-        <v>4.1092395782470703E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C76"/>
+      <c r="F76" s="3"/>
+      <c r="I76"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>2.24146842956542E-2</v>
       </c>
       <c r="B77" s="3">
         <v>2.8950452804565398E-2</v>
       </c>
-      <c r="C77" s="3">
-        <v>1.2533664703369101E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C77"/>
+      <c r="F77" s="3"/>
+      <c r="I77"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>1.44288539886474E-2</v>
       </c>
       <c r="B78" s="3">
         <v>1.9056320190429601E-2</v>
       </c>
-      <c r="C78" s="3">
-        <v>4.4361829757690402E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C78"/>
+      <c r="F78" s="3"/>
+      <c r="I78"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>1.6040802001953101E-2</v>
       </c>
       <c r="B79" s="3">
         <v>2.0682334899902299E-2</v>
       </c>
-      <c r="C79" s="3">
-        <v>9.5267295837402292E-3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C79"/>
+      <c r="F79" s="3"/>
+      <c r="I79"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>2.5650262832641602E-2</v>
       </c>
       <c r="B80" s="3">
         <v>2.7356863021850499E-2</v>
       </c>
-      <c r="C80" s="3">
-        <v>6.4971446990966797E-3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C80"/>
+      <c r="F80" s="3"/>
+      <c r="I80"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>1.6648054122924801E-2</v>
       </c>
       <c r="B81" s="3">
         <v>1.7836332321166899E-2</v>
       </c>
-      <c r="C81" s="3">
-        <v>9.9232196807861293E-3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C81"/>
+      <c r="F81" s="3"/>
+      <c r="I81"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>1.3047933578491201E-2</v>
       </c>
       <c r="B82" s="3">
         <v>2.1164894104003899E-2</v>
       </c>
-      <c r="C82" s="3">
-        <v>9.6077919006347604E-3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C82"/>
+      <c r="F82" s="3"/>
+      <c r="I82"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>2.4077653884887602E-2</v>
       </c>
       <c r="B83" s="3">
         <v>3.0623197555541899E-2</v>
       </c>
-      <c r="C83" s="3">
-        <v>2.6695251464843701E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C83"/>
+      <c r="F83" s="3"/>
+      <c r="I83"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>1.35138034820556E-2</v>
       </c>
       <c r="B84" s="3">
         <v>2.0709514617919901E-2</v>
       </c>
-      <c r="C84" s="3">
-        <v>1.4521837234496999E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C84"/>
+      <c r="F84" s="3"/>
+      <c r="I84"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>1.2602090835571201E-2</v>
       </c>
       <c r="B85" s="3">
         <v>1.7062664031982401E-2</v>
       </c>
-      <c r="C85" s="3">
-        <v>4.1582584381103502E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C85"/>
+      <c r="F85" s="3"/>
+      <c r="I85"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>2.2758007049560498E-2</v>
       </c>
       <c r="B86" s="3">
         <v>2.3863077163696199E-2</v>
       </c>
-      <c r="C86" s="3">
-        <v>3.4565687179565402E-2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C86"/>
+      <c r="F86" s="3"/>
+      <c r="I86"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>1.35855674743652E-2</v>
       </c>
       <c r="B87" s="3">
         <v>2.26178169250488E-2</v>
       </c>
-      <c r="C87" s="3">
-        <v>2.0222425460815398E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C87"/>
+      <c r="F87" s="3"/>
+      <c r="I87"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>1.28345489501953E-2</v>
       </c>
       <c r="B88" s="3">
         <v>1.9236564636230399E-2</v>
       </c>
-      <c r="C88" s="3">
-        <v>9.5393657684326102E-3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C88"/>
+      <c r="F88" s="3"/>
+      <c r="I88"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>2.0058155059814401E-2</v>
       </c>
       <c r="B89" s="3">
         <v>2.6509046554565398E-2</v>
       </c>
-      <c r="C89" s="3">
-        <v>4.4303894042968701E-2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C89"/>
+      <c r="F89" s="3"/>
+      <c r="I89"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <v>1.1801481246948201E-2</v>
       </c>
       <c r="B90" s="3">
         <v>1.9139051437377898E-2</v>
       </c>
-      <c r="C90" s="3">
-        <v>1.1040925979614201E-2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C90"/>
+      <c r="F90" s="3"/>
+      <c r="I90"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>2.5561571121215799E-2</v>
       </c>
       <c r="B91" s="3">
         <v>2.86376476287841E-2</v>
       </c>
-      <c r="C91" s="3">
-        <v>1.2706279754638601E-2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C91"/>
+      <c r="F91" s="3"/>
+      <c r="I91"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>1.30376815795898E-2</v>
       </c>
       <c r="B92" s="3">
         <v>1.8344879150390601E-2</v>
       </c>
-      <c r="C92" s="3">
-        <v>9.5143318176269497E-3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C92"/>
+      <c r="F92" s="3"/>
+      <c r="I92"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
         <v>1.27148628234863E-2</v>
       </c>
       <c r="B93" s="3">
         <v>1.8613338470458901E-2</v>
       </c>
-      <c r="C93" s="3">
-        <v>4.2927742004394497E-2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C93"/>
+      <c r="F93" s="3"/>
+      <c r="I93"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>2.0901679992675701E-2</v>
       </c>
       <c r="B94" s="3">
         <v>2.6805400848388599E-2</v>
       </c>
-      <c r="C94" s="3">
-        <v>3.1352758407592697E-2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C94"/>
+      <c r="F94" s="3"/>
+      <c r="I94"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
         <v>1.1798143386840799E-2</v>
       </c>
       <c r="B95" s="3">
         <v>1.7537832260131801E-2</v>
       </c>
-      <c r="C95" s="3">
-        <v>2.9839038848876901E-2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C95"/>
+      <c r="F95" s="3"/>
+      <c r="I95"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>1.33287906646728E-2</v>
       </c>
       <c r="B96" s="3">
         <v>1.8114089965820299E-2</v>
       </c>
-      <c r="C96" s="3">
-        <v>1.0502099990844701E-2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C96"/>
+      <c r="F96" s="3"/>
+      <c r="I96"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>2.1136522293090799E-2</v>
       </c>
       <c r="B97" s="3">
         <v>2.8105020523071199E-2</v>
       </c>
-      <c r="C97" s="3">
-        <v>3.9216518402099602E-2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C97"/>
+      <c r="F97" s="3"/>
+      <c r="I97"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>1.15125179290771E-2</v>
       </c>
       <c r="B98" s="3">
         <v>2.01411247253417E-2</v>
       </c>
-      <c r="C98" s="3">
-        <v>9.9322795867919905E-3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C98"/>
+      <c r="F98" s="3"/>
+      <c r="I98"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
         <v>1.21309757232666E-2</v>
       </c>
       <c r="B99" s="3">
         <v>2.01659202575683E-2</v>
       </c>
-      <c r="C99" s="3">
-        <v>7.5335502624511701E-3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C99"/>
+      <c r="F99" s="3"/>
+      <c r="I99"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>2.10697650909423E-2</v>
       </c>
       <c r="B100" s="3">
         <v>2.5192022323608398E-2</v>
       </c>
-      <c r="C100" s="3">
-        <v>2.0148277282714799E-2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C100"/>
+      <c r="F100" s="3"/>
+      <c r="I100"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
         <v>1.25751495361328E-2</v>
       </c>
       <c r="B101" s="3">
         <v>2.0225524902343701E-2</v>
       </c>
-      <c r="C101" s="3">
-        <v>7.5345039367675703E-3</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C101"/>
+      <c r="F101" s="3"/>
+      <c r="I101"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
         <v>1.25412940979003E-2</v>
       </c>
       <c r="B102" s="3">
         <v>1.7664909362792899E-2</v>
       </c>
-      <c r="C102" s="3">
-        <v>4.1240453720092697E-2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C102"/>
+      <c r="F102" s="3"/>
+      <c r="I102"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -6134,8 +6092,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:C1"/>
     <mergeCell ref="L1:M1"/>
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
